--- a/data/exampleStochastic/Power_ThermalGen.xlsx
+++ b/data/exampleStochastic/Power_ThermalGen.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo\data\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo\data\exampleStochastic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE45F60-9DC1-4A51-A247-634EAA37BA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9D529D-4F76-4E98-85FC-7F96DDD3E6AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32565" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34230" yWindow="-21705" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenarioA" sheetId="1" r:id="rId1"/>
     <sheet name="ScenarioB" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -4375,7 +4388,7 @@
         <v>110</v>
       </c>
       <c r="F13" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="14">
         <v>500</v>
@@ -4553,7 +4566,7 @@
         <v>105</v>
       </c>
       <c r="F15" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="14">
         <v>500</v>
@@ -4733,7 +4746,7 @@
         <v>107</v>
       </c>
       <c r="F17" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="14">
         <v>500</v>
@@ -4911,7 +4924,7 @@
         <v>105</v>
       </c>
       <c r="F19" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="14">
         <v>500</v>
@@ -5178,7 +5191,7 @@
         <v>101</v>
       </c>
       <c r="F22" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" s="14">
         <v>400</v>
@@ -5445,7 +5458,7 @@
         <v>107</v>
       </c>
       <c r="F25" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" s="14">
         <v>400</v>
@@ -5623,7 +5636,7 @@
         <v>127</v>
       </c>
       <c r="F27" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="14">
         <v>441.8</v>

--- a/data/exampleStochastic/Power_ThermalGen.xlsx
+++ b/data/exampleStochastic/Power_ThermalGen.xlsx
@@ -601,7 +601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="00008080"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1680,7 +1680,11 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="10" t="n"/>
+      <c r="A10" s="10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="B10" s="11" t="n">
         <v/>
       </c>
@@ -1783,7 +1787,11 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="10" t="n"/>
+      <c r="A11" s="10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="B11" s="11" t="n">
         <v/>
       </c>
@@ -1886,7 +1894,11 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="B12" s="11" t="n">
         <v/>
       </c>
@@ -2092,7 +2104,11 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="10" t="n"/>
+      <c r="A14" s="10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="B14" s="11" t="n">
         <v/>
       </c>
@@ -2195,7 +2211,11 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="10" t="n"/>
+      <c r="A15" s="10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="B15" s="11" t="n">
         <v/>
       </c>
@@ -2298,7 +2318,11 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="10" t="n"/>
+      <c r="A16" s="10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="B16" s="11" t="n">
         <v/>
       </c>
@@ -2508,7 +2532,11 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="10" t="n"/>
+      <c r="A18" s="10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="B18" s="11" t="n">
         <v/>
       </c>
@@ -2611,7 +2639,11 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="10" t="n"/>
+      <c r="A19" s="10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="B19" s="11" t="n">
         <v/>
       </c>
@@ -2714,7 +2746,11 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="10" t="n"/>
+      <c r="A20" s="10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="B20" s="11" t="n">
         <v/>
       </c>
@@ -2817,7 +2853,11 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="10" t="n"/>
+      <c r="A21" s="10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="B21" s="11" t="n">
         <v/>
       </c>
@@ -2920,7 +2960,11 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="10" t="n"/>
+      <c r="A22" s="10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="B22" s="11" t="n">
         <v/>
       </c>
@@ -3023,7 +3067,11 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="10" t="n"/>
+      <c r="A23" s="10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="B23" s="11" t="n">
         <v/>
       </c>
@@ -3126,7 +3174,11 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="10" t="n"/>
+      <c r="A24" s="10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="B24" s="11" t="n">
         <v/>
       </c>
@@ -3229,7 +3281,11 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="10" t="n"/>
+      <c r="A25" s="10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="B25" s="11" t="n">
         <v/>
       </c>
@@ -3332,7 +3388,11 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="10" t="n"/>
+      <c r="A26" s="10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="B26" s="11" t="n">
         <v/>
       </c>
@@ -3435,7 +3495,11 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="10" t="n"/>
+      <c r="A27" s="10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="B27" s="11" t="n">
         <v/>
       </c>
@@ -3539,12 +3603,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="00008080"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4540,7 +4604,7 @@
         </is>
       </c>
       <c r="F9" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="14" t="n">
         <v>588</v>
@@ -4588,7 +4652,7 @@
         <v/>
       </c>
       <c r="V9" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" s="15" t="n">
         <v>145591.3071</v>
@@ -4623,7 +4687,11 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="10" t="n"/>
+      <c r="A10" s="10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="B10" s="11" t="n">
         <v/>
       </c>
@@ -4726,7 +4794,11 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="10" t="n"/>
+      <c r="A11" s="10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="B11" s="11" t="n">
         <v/>
       </c>
@@ -4829,7 +4901,11 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="B12" s="11" t="n">
         <v/>
       </c>
@@ -5000,7 +5076,7 @@
         <v/>
       </c>
       <c r="V13" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13" s="15" t="n">
         <v>41818.7797</v>
@@ -5035,7 +5111,11 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="10" t="n"/>
+      <c r="A14" s="10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="B14" s="11" t="n">
         <v/>
       </c>
@@ -5138,7 +5218,11 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="10" t="n"/>
+      <c r="A15" s="10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="B15" s="11" t="n">
         <v/>
       </c>
@@ -5241,7 +5325,11 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="10" t="n"/>
+      <c r="A16" s="10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="B16" s="11" t="n">
         <v/>
       </c>
@@ -5451,7 +5539,11 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="10" t="n"/>
+      <c r="A18" s="10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="B18" s="11" t="n">
         <v/>
       </c>
@@ -5554,7 +5646,11 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="10" t="n"/>
+      <c r="A19" s="10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="B19" s="11" t="n">
         <v/>
       </c>
@@ -5657,7 +5753,11 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="10" t="n"/>
+      <c r="A20" s="10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="B20" s="11" t="n">
         <v/>
       </c>
@@ -5760,7 +5860,11 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="10" t="n"/>
+      <c r="A21" s="10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="B21" s="11" t="n">
         <v/>
       </c>
@@ -5863,7 +5967,11 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="10" t="n"/>
+      <c r="A22" s="10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="B22" s="11" t="n">
         <v/>
       </c>
@@ -5966,7 +6074,11 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="10" t="n"/>
+      <c r="A23" s="10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="B23" s="11" t="n">
         <v/>
       </c>
@@ -6069,7 +6181,11 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="10" t="n"/>
+      <c r="A24" s="10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="B24" s="11" t="n">
         <v/>
       </c>
@@ -6172,7 +6288,11 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="10" t="n"/>
+      <c r="A25" s="10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="B25" s="11" t="n">
         <v/>
       </c>
@@ -6275,7 +6395,11 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="10" t="n"/>
+      <c r="A26" s="10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="B26" s="11" t="n">
         <v/>
       </c>
@@ -6378,7 +6502,11 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="10" t="n"/>
+      <c r="A27" s="10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="B27" s="11" t="n">
         <v/>
       </c>
@@ -6482,6 +6610,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
--- a/data/exampleStochastic/Power_ThermalGen.xlsx
+++ b/data/exampleStochastic/Power_ThermalGen.xlsx
@@ -651,7 +651,7 @@
     <col width="24.5709375" customWidth="1" min="31" max="31"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="24" customHeight="1">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="2" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
     <col width="24.5709375" customWidth="1" min="31" max="31"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="24" customHeight="1">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="2" t="inlineStr">
         <is>

--- a/data/exampleStochastic/Power_ThermalGen.xlsx
+++ b/data/exampleStochastic/Power_ThermalGen.xlsx
@@ -42,13 +42,13 @@
     </font>
     <font>
       <name val="Aptos"/>
-      <color rgb="000000FF"/>
+      <color rgb="FF0000FF"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="Aptos"/>
       <b val="1"/>
-      <color rgb="00FFFFFF"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="18"/>
     </font>
     <font>
@@ -65,38 +65,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00008080"/>
-        <bgColor rgb="00008080"/>
+        <fgColor rgb="FF008080"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DAEEF3"/>
-        <bgColor rgb="00DAEEF3"/>
+        <fgColor rgb="FFDAEEF3"/>
+        <bgColor rgb="FFDAEEF3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D9D9D9"/>
-        <bgColor rgb="00D9D9D9"/>
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F2F2F2"/>
-        <bgColor rgb="00F2F2F2"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B8CCE4"/>
-        <bgColor rgb="00B8CCE4"/>
+        <fgColor rgb="FFB8CCE4"/>
+        <bgColor rgb="FFB8CCE4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CCFFCC"/>
-        <bgColor rgb="00CCFFCC"/>
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -601,7 +601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="00008080"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -618,7 +618,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="5.5709375" customWidth="1" min="1" max="1"/>
+    <col width="5.5703125" customWidth="1" min="1" max="1"/>
     <col width="19.7109375" customWidth="1" min="2" max="2"/>
     <col width="15.7109375" customWidth="1" min="3" max="3"/>
     <col width="15.7109375" customWidth="1" min="4" max="4"/>
@@ -626,8 +626,8 @@
     <col width="15.7109375" customWidth="1" min="6" max="6"/>
     <col width="15.7109375" customWidth="1" min="7" max="7"/>
     <col width="15.7109375" customWidth="1" min="8" max="8"/>
-    <col width="17.5709375" customWidth="1" min="9" max="9"/>
-    <col width="17.5709375" customWidth="1" min="10" max="10"/>
+    <col width="17.5703125" customWidth="1" min="9" max="9"/>
+    <col width="17.5703125" customWidth="1" min="10" max="10"/>
     <col width="15.7109375" customWidth="1" min="11" max="11"/>
     <col width="15.7109375" customWidth="1" min="12" max="12"/>
     <col width="15.7109375" customWidth="1" min="13" max="13"/>
@@ -643,12 +643,12 @@
     <col width="15.7109375" customWidth="1" min="23" max="23"/>
     <col width="15.7109375" customWidth="1" min="24" max="24"/>
     <col width="15.7109375" customWidth="1" min="25" max="25"/>
-    <col width="20.2109375" customWidth="1" min="26" max="26"/>
-    <col width="20.2109375" customWidth="1" min="27" max="27"/>
+    <col width="20.140625" customWidth="1" min="26" max="26"/>
+    <col width="20.140625" customWidth="1" min="27" max="27"/>
     <col width="15.7109375" customWidth="1" min="28" max="28"/>
     <col width="15.7109375" customWidth="1" min="29" max="29"/>
-    <col width="24.5709375" customWidth="1" min="30" max="30"/>
-    <col width="24.5709375" customWidth="1" min="31" max="31"/>
+    <col width="24.5703125" customWidth="1" min="30" max="30"/>
+    <col width="24.5703125" customWidth="1" min="31" max="31"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1">
@@ -3603,12 +3603,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="00008080"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3625,7 +3625,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="5.5709375" customWidth="1" min="1" max="1"/>
+    <col width="5.5703125" customWidth="1" min="1" max="1"/>
     <col width="19.7109375" customWidth="1" min="2" max="2"/>
     <col width="15.7109375" customWidth="1" min="3" max="3"/>
     <col width="15.7109375" customWidth="1" min="4" max="4"/>
@@ -3633,8 +3633,8 @@
     <col width="15.7109375" customWidth="1" min="6" max="6"/>
     <col width="15.7109375" customWidth="1" min="7" max="7"/>
     <col width="15.7109375" customWidth="1" min="8" max="8"/>
-    <col width="17.5709375" customWidth="1" min="9" max="9"/>
-    <col width="17.5709375" customWidth="1" min="10" max="10"/>
+    <col width="17.5703125" customWidth="1" min="9" max="9"/>
+    <col width="17.5703125" customWidth="1" min="10" max="10"/>
     <col width="15.7109375" customWidth="1" min="11" max="11"/>
     <col width="15.7109375" customWidth="1" min="12" max="12"/>
     <col width="15.7109375" customWidth="1" min="13" max="13"/>
@@ -3650,12 +3650,12 @@
     <col width="15.7109375" customWidth="1" min="23" max="23"/>
     <col width="15.7109375" customWidth="1" min="24" max="24"/>
     <col width="15.7109375" customWidth="1" min="25" max="25"/>
-    <col width="20.2109375" customWidth="1" min="26" max="26"/>
-    <col width="20.2109375" customWidth="1" min="27" max="27"/>
+    <col width="20.140625" customWidth="1" min="26" max="26"/>
+    <col width="20.140625" customWidth="1" min="27" max="27"/>
     <col width="15.7109375" customWidth="1" min="28" max="28"/>
     <col width="15.7109375" customWidth="1" min="29" max="29"/>
-    <col width="24.5709375" customWidth="1" min="30" max="30"/>
-    <col width="24.5709375" customWidth="1" min="31" max="31"/>
+    <col width="24.5703125" customWidth="1" min="30" max="30"/>
+    <col width="24.5703125" customWidth="1" min="31" max="31"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1">
@@ -6610,6 +6610,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>